--- a/biology/Botanique/Valiha_(plante)/Valiha_(plante).xlsx
+++ b/biology/Botanique/Valiha_(plante)/Valiha_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Valiha est un genre de plantes de la famille des Poaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (9 décembre 2018)[2], Catalogue of Life                                   (9 décembre 2018)[3], ITIS      (9 décembre 2018)[4], World Checklist of Selected Plant Families (WCSP)  (9 décembre 2018)[5], The Plant List            (9 décembre 2018)[6] et Tropicos                                           (9 décembre 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (9 décembre 2018), Catalogue of Life                                   (9 décembre 2018), ITIS      (9 décembre 2018), World Checklist of Selected Plant Families (WCSP)  (9 décembre 2018), The Plant List            (9 décembre 2018) et Tropicos                                           (9 décembre 2018) :
 Valiha diffusa S.Dransf. (1998)
 Valiha perrieri (A.Camus) S.Dransf. (1998)</t>
         </is>
